--- a/PCB modules/breakout/harp camera controller breakout v1.0 BOM.xlsx
+++ b/PCB modules/breakout/harp camera controller breakout v1.0 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEPS\Documents\github\harp-tech\harp_camera_controller\PCB modules\breakout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00256AF1-A42A-4854-BDD7-42C268417A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD363C1-2E15-4868-826D-4B42A08A6FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22DE42AE-D7DB-44FC-B9CF-DE1961A005DB}"/>
+    <workbookView xWindow="35880" yWindow="5220" windowWidth="21600" windowHeight="11295" xr2:uid="{22DE42AE-D7DB-44FC-B9CF-DE1961A005DB}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Qty</t>
   </si>
@@ -101,24 +101,12 @@
     <t>Distributor</t>
   </si>
   <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>Ultra-Low-Noise LDO 3.3V 250mA</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
-    <t>Farnell</t>
-  </si>
-  <si>
     <t>282834-7</t>
   </si>
   <si>
-    <t>Terminal block 7 ways 2.54 mm</t>
-  </si>
-  <si>
     <t>215877-1</t>
   </si>
   <si>
@@ -126,6 +114,21 @@
   </si>
   <si>
     <t>Small Ethernet cable</t>
+  </si>
+  <si>
+    <t>A105009TR-ND</t>
+  </si>
+  <si>
+    <t>RJ45 JACK 8P8C R/A UNSHIELDED</t>
+  </si>
+  <si>
+    <t>A135912-ND</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>TERMINAL BLOCK 2.54MM 7POS side entry</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,18 +679,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1056,7 +1052,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,41 +1094,39 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10">
-        <v>3363144</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,43 +1134,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3792975</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1186,26 +1180,26 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
